--- a/Прикладные модели оптимизации/4936 КР Петровнина.xlsx
+++ b/Прикладные модели оптимизации/4936 КР Петровнина.xlsx
@@ -2,14 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$D$2:$D$8</definedName>
@@ -319,20 +317,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -342,6 +328,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -643,10 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +693,7 @@
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="21">
         <f>B4*B12+B5*C12+B6*D12+B7*E12+B8*F12</f>
         <v>1.7800000000000002</v>
       </c>
@@ -704,11 +703,11 @@
       <c r="D2" s="6">
         <v>525</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="19">
         <f>D2*C2</f>
         <v>2073.75</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="19">
         <f>D2*B2</f>
         <v>934.50000000000011</v>
       </c>
@@ -721,7 +720,7 @@
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="21">
         <f>B4*B13+B5*C13+B6*D13+B7*E13+B8*F13</f>
         <v>1.9900000000000002</v>
       </c>
@@ -731,11 +730,11 @@
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <f t="shared" ref="E3:E8" si="0">D3*C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F8" si="1">D3*B3</f>
         <v>0</v>
       </c>
@@ -757,22 +756,22 @@
       <c r="D4" s="6">
         <v>295</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>826</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <f t="shared" si="1"/>
         <v>398.25</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="19">
         <f>D4+SUMPRODUCT(D2:D3,B12:B13)</f>
         <v>400</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <f>J4/2</f>
         <v>400</v>
       </c>
@@ -793,22 +792,22 @@
       <c r="D5" s="6">
         <v>195</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>633.75</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
         <v>302.25</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="19">
         <f>D5+SUMPRODUCT($D$2:$D$3,C$12:C$13)</f>
         <v>300</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="21">
         <f t="shared" ref="I5:I8" si="2">J5/2</f>
         <v>300</v>
       </c>
@@ -829,22 +828,22 @@
       <c r="D6" s="6">
         <v>145</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>246.5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="19">
         <f>D6+SUMPRODUCT($D$2:$D$3,D$12:D$13)</f>
         <v>250</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
@@ -865,22 +864,22 @@
       <c r="D7" s="6">
         <v>245</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>857.5</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>416.5</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="19">
         <f>D7+SUMPRODUCT($D$2:$D$3,E$12:E$13)</f>
         <v>350</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
@@ -901,22 +900,22 @@
       <c r="D8" s="7">
         <v>345</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <f t="shared" si="0"/>
         <v>1897.5</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <f t="shared" si="1"/>
         <v>897</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <f>D8+SUMPRODUCT($D$2:$D$3,F$12:F$13)</f>
         <v>450</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="22">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
@@ -926,17 +925,17 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
@@ -944,27 +943,27 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <f>SUM(D2:D3)/SUM(D2:D8)</f>
         <v>0.3</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <f>SUM(E2:E8)-SUM(F2:F8)</f>
         <v>3615.5</v>
       </c>
@@ -988,7 +987,7 @@
       <c r="F12" s="3">
         <v>0.2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1011,7 +1010,7 @@
       <c r="F13" s="5">
         <v>0.4</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="16">
         <v>0.3</v>
       </c>
     </row>
@@ -1022,28 +1021,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>